--- a/rekap sepatu.xlsx
+++ b/rekap sepatu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mapan\progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{49369A6B-6D75-4491-B25E-0D9776D7ED48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEB6AFC2-E296-40A6-847A-6C02CFB81D9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{33196241-C482-4530-B8B9-B835070A8835}"/>
+    <workbookView xWindow="1770" yWindow="1770" windowWidth="21600" windowHeight="11385" xr2:uid="{33196241-C482-4530-B8B9-B835070A8835}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -419,11 +419,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{708D2D85-9015-4924-9453-B2503188CC4C}">
   <dimension ref="E1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView tabSelected="1" topLeftCell="C12" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="9" width="0" hidden="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="5:10" x14ac:dyDescent="0.25">
       <c r="F1" t="s">
@@ -462,7 +465,7 @@
         <v>2</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I10" si="0">SUM(F3:H3)</f>
+        <f t="shared" ref="I3:I9" si="0">SUM(F3:H3)</f>
         <v>2</v>
       </c>
       <c r="J3">
@@ -779,7 +782,7 @@
         <v>1</v>
       </c>
       <c r="I25">
-        <f t="shared" ref="I24:I31" si="4">SUM(F25:H25)</f>
+        <f t="shared" ref="I25:I31" si="4">SUM(F25:H25)</f>
         <v>3</v>
       </c>
       <c r="J25">
